--- a/header.xlsx
+++ b/header.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Company\document control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4186C0CC-3395-4994-B9DD-DF77A129F2A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1815DA3-C4F1-42A6-9EAE-1BB7FDA0FB6F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{C556FC06-F61B-436D-9720-92654375B30E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ПРИЛОЖЕНИЕ №1</t>
   </si>
@@ -36,25 +36,22 @@
     <t>технического снабжения</t>
   </si>
   <si>
+    <t>Н. С. Никитину</t>
+  </si>
+  <si>
+    <t>Заявка на комплектацию</t>
+  </si>
+  <si>
+    <t>лаборатории РТО</t>
+  </si>
+  <si>
+    <t>(подразделение)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   (месяц, год)</t>
+  </si>
+  <si>
     <t>АО "Светлана-Электронприбор"</t>
-  </si>
-  <si>
-    <t>Н. С. Никитину</t>
-  </si>
-  <si>
-    <t>Заявка на комплектацию</t>
-  </si>
-  <si>
-    <t>лаборатории РТО</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2025 г.</t>
-  </si>
-  <si>
-    <t>(подразделение)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   (месяц, год)</t>
   </si>
 </sst>
 </file>
@@ -463,7 +460,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +494,7 @@
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -508,7 +505,7 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -526,27 +523,25 @@
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>6</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="5"/>
-      <c r="G6" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="5"/>
       <c r="F7" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G7" s="11"/>
     </row>
